--- a/uploads/balance2016.xlsx
+++ b/uploads/balance2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levzo\Desktop\web_balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levzo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" tabRatio="923" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="Баланс" sheetId="40" r:id="rId1"/>
@@ -2138,8 +2138,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2269,7 +2269,9 @@
         <f>Уголь_пр!B3</f>
         <v>196.37</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="70">
+        <v>0</v>
+      </c>
       <c r="E5" s="70">
         <f>Нефтепродукты!B3</f>
         <v>0</v>
@@ -2286,9 +2288,15 @@
         <f>Электро!B4</f>
         <v>230.66</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="87"/>
+      <c r="I5" s="70">
+        <v>0</v>
+      </c>
+      <c r="J5" s="70">
+        <v>0</v>
+      </c>
+      <c r="K5" s="87">
+        <v>0</v>
+      </c>
       <c r="L5" s="94">
         <f t="shared" ref="L5:L15" si="0">SUM(C5:K5)</f>
         <v>473.35</v>
@@ -2307,7 +2315,9 @@
         <f>Уголь_пр!B4</f>
         <v>1534.34</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="70">
+        <v>0</v>
+      </c>
       <c r="E6" s="70">
         <f>Нефтепродукты!B4</f>
         <v>8051.5800000000008</v>
@@ -2320,8 +2330,12 @@
         <f>ПТТ!B4</f>
         <v>0</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="H6" s="70">
+        <v>0</v>
+      </c>
+      <c r="I6" s="70">
+        <v>0</v>
+      </c>
       <c r="J6" s="70">
         <f>Электро!B5</f>
         <v>6909.62</v>
@@ -2348,7 +2362,9 @@
         <f>Уголь_пр!B5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="70"/>
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
       <c r="E7" s="70">
         <f>Нефтепродукты!B5</f>
         <v>0</v>
@@ -2361,8 +2377,12 @@
         <f>ПТТ!B5</f>
         <v>0</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="H7" s="70">
+        <v>0</v>
+      </c>
+      <c r="I7" s="70">
+        <v>0</v>
+      </c>
       <c r="J7" s="70">
         <f>-Электро!B6</f>
         <v>-3290.27</v>
@@ -2388,7 +2408,9 @@
         <f>Уголь_пр!B6</f>
         <v>187.64000000000001</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="70">
+        <v>0</v>
+      </c>
       <c r="E8" s="70">
         <f>Нефтепродукты!B6</f>
         <v>-297.68999999999994</v>
@@ -2401,8 +2423,12 @@
         <f>ПТТ!B6</f>
         <v>0.09</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="H8" s="70">
+        <v>0</v>
+      </c>
+      <c r="I8" s="70">
+        <v>0</v>
+      </c>
       <c r="J8" s="70">
         <f>Электро!B7</f>
         <v>0</v>
@@ -2473,7 +2499,9 @@
         <f>Уголь_пр!B8</f>
         <v>0.32399999999989859</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="70">
+        <v>0</v>
+      </c>
       <c r="E10" s="70">
         <f>Нефтепродукты!B8</f>
         <v>-3.3199999999994612</v>
@@ -2486,8 +2514,12 @@
         <f>ПТТ!B8</f>
         <v>9.9999999999995735E-3</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="H10" s="70">
+        <v>0</v>
+      </c>
+      <c r="I10" s="70">
+        <v>0</v>
+      </c>
       <c r="J10" s="70">
         <f>Электро!B9</f>
         <v>249.92000000000007</v>
@@ -2562,7 +2594,9 @@
         <f t="shared" ref="C12:K12" si="1">C13+C14+C15</f>
         <v>-815.31</v>
       </c>
-      <c r="D12" s="77"/>
+      <c r="D12" s="77">
+        <v>0</v>
+      </c>
       <c r="E12" s="77">
         <f t="shared" si="1"/>
         <v>-222.85</v>
@@ -2575,8 +2609,12 @@
         <f t="shared" si="1"/>
         <v>-46.39</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
+      <c r="H12" s="77">
+        <v>0</v>
+      </c>
+      <c r="I12" s="77">
+        <v>0</v>
+      </c>
       <c r="J12" s="77">
         <f t="shared" si="1"/>
         <v>-92.68</v>
@@ -2618,8 +2656,12 @@
         <f>-ПТТ!B12</f>
         <v>0</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="H13" s="70">
+        <v>0</v>
+      </c>
+      <c r="I13" s="70">
+        <v>0</v>
+      </c>
       <c r="J13" s="70">
         <f>-Электро!B11</f>
         <v>-7.79</v>
@@ -2661,8 +2703,12 @@
         <f>-ПТТ!B13</f>
         <v>-46.39</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
+      <c r="H14" s="70">
+        <v>0</v>
+      </c>
+      <c r="I14" s="70">
+        <v>0</v>
+      </c>
       <c r="J14" s="70">
         <f>-Электро!B12</f>
         <v>-84.89</v>
@@ -2687,7 +2733,9 @@
         <f>-(Уголь_пр!B13+Уголь_пр!B14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="D15" s="70">
+        <v>0</v>
+      </c>
       <c r="E15" s="70">
         <f>-(Нефтепродукты!B14+Нефтепродукты!B15)</f>
         <v>0</v>
@@ -2700,8 +2748,12 @@
         <f>-(ПТТ!B14+ПТТ!B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
+      <c r="H15" s="70">
+        <v>0</v>
+      </c>
+      <c r="I15" s="70">
+        <v>0</v>
+      </c>
       <c r="J15" s="70">
         <f>-(Электро!B13+Электро!B14)</f>
         <v>0</v>
@@ -2727,7 +2779,9 @@
         <f>C17+C18+C19</f>
         <v>-696.84</v>
       </c>
-      <c r="D16" s="98"/>
+      <c r="D16" s="98">
+        <v>0</v>
+      </c>
       <c r="E16" s="80">
         <f t="shared" ref="E16:K16" si="2">E17+E18+E19</f>
         <v>-0.05</v>
@@ -2740,8 +2794,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
+      <c r="H16" s="80">
+        <v>0</v>
+      </c>
+      <c r="I16" s="80">
+        <v>0</v>
+      </c>
       <c r="J16" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2766,7 +2824,9 @@
         <f>-Уголь_пр!B15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="99"/>
+      <c r="D17" s="99">
+        <v>0</v>
+      </c>
       <c r="E17" s="70">
         <f>-Нефтепродукты!B16</f>
         <v>0</v>
@@ -2779,8 +2839,12 @@
         <f>ПТТ!B16</f>
         <v>0</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
+      <c r="H17" s="70">
+        <v>0</v>
+      </c>
+      <c r="I17" s="70">
+        <v>0</v>
+      </c>
       <c r="J17" s="70">
         <f>-Электро!B15</f>
         <v>0</v>
@@ -2805,7 +2869,9 @@
         <f>-Уголь_пр!B16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="70">
+        <v>0</v>
+      </c>
       <c r="E18" s="70">
         <f>-Нефтепродукты!B17</f>
         <v>0</v>
@@ -2818,8 +2884,12 @@
         <f>ПТТ!B17</f>
         <v>0</v>
       </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
+      <c r="H18" s="70">
+        <v>0</v>
+      </c>
+      <c r="I18" s="70">
+        <v>0</v>
+      </c>
       <c r="J18" s="70">
         <f>-Электро!B16</f>
         <v>0</v>
@@ -2844,7 +2914,9 @@
         <f>-Уголь_пр!B17</f>
         <v>-696.84</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="70">
+        <v>0</v>
+      </c>
       <c r="E19" s="70">
         <f>-Нефтепродукты!B18</f>
         <v>-0.05</v>
@@ -2857,8 +2929,12 @@
         <f>ПТТ!B18</f>
         <v>0</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
+      <c r="H19" s="70">
+        <v>0</v>
+      </c>
+      <c r="I19" s="70">
+        <v>0</v>
+      </c>
       <c r="J19" s="70">
         <f>-Электро!B17</f>
         <v>0</v>
@@ -2898,7 +2974,9 @@
         <f>ПТТ!B19</f>
         <v>0</v>
       </c>
-      <c r="H20" s="77"/>
+      <c r="H20" s="77">
+        <v>0</v>
+      </c>
       <c r="I20" s="77">
         <v>0</v>
       </c>
@@ -2926,7 +3004,9 @@
         <f>-Уголь_пр!B19</f>
         <v>0</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="77">
+        <v>0</v>
+      </c>
       <c r="E21" s="77">
         <f>-Нефтепродукты!B20</f>
         <v>0</v>
@@ -2939,8 +3019,12 @@
         <f>ПТТ!B20</f>
         <v>0</v>
       </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="77"/>
+      <c r="H21" s="98">
+        <v>0</v>
+      </c>
+      <c r="I21" s="77">
+        <v>0</v>
+      </c>
       <c r="J21" s="77">
         <f>-Электро!B19</f>
         <v>-813.33</v>
@@ -2980,7 +3064,9 @@
         <f>ПТТ!B21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="100"/>
+      <c r="H22" s="100">
+        <v>0</v>
+      </c>
       <c r="I22" s="73">
         <v>0</v>
       </c>
@@ -3008,7 +3094,9 @@
         <f>-Уголь_пр!B21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="77">
+        <v>0</v>
+      </c>
       <c r="E23" s="77">
         <f>Нефтепродукты!B22</f>
         <v>71.509999999999991</v>
@@ -3024,7 +3112,9 @@
       <c r="H23" s="80">
         <v>0</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="77">
+        <v>0</v>
+      </c>
       <c r="J23" s="77">
         <f>Электро!B21</f>
         <v>108.02</v>
@@ -3049,7 +3139,9 @@
         <f>-Уголь_пр!B22</f>
         <v>0</v>
       </c>
-      <c r="D24" s="77"/>
+      <c r="D24" s="77">
+        <v>0</v>
+      </c>
       <c r="E24" s="77">
         <f>Нефтепродукты!B23</f>
         <v>403.11</v>
@@ -3058,9 +3150,15 @@
         <f>'Пр-й газ'!B24</f>
         <v>32.409999999999997</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
+      <c r="G24" s="101">
+        <v>0</v>
+      </c>
+      <c r="H24" s="77">
+        <v>0</v>
+      </c>
+      <c r="I24" s="77">
+        <v>0</v>
+      </c>
       <c r="J24" s="77">
         <f>Электро!B22</f>
         <v>1966.49</v>
@@ -3083,7 +3181,9 @@
         <f>-Уголь_пр!B23</f>
         <v>0</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="77">
+        <v>0</v>
+      </c>
       <c r="E25" s="77">
         <f>Нефтепродукты!B24</f>
         <v>38.89</v>
@@ -3096,8 +3196,12 @@
         <f>ПТТ!B23</f>
         <v>0</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
+      <c r="H25" s="77">
+        <v>0</v>
+      </c>
+      <c r="I25" s="77">
+        <v>0</v>
+      </c>
       <c r="J25" s="77">
         <f>Электро!B23</f>
         <v>19.57</v>
@@ -3120,7 +3224,9 @@
         <f>-Уголь_пр!B24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="77">
+        <v>0</v>
+      </c>
       <c r="E26" s="77">
         <f>Нефтепродукты!B25</f>
         <v>313.66999999999996</v>
@@ -3133,8 +3239,12 @@
         <f>ПТТ!B24</f>
         <v>0</v>
       </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
+      <c r="H26" s="77">
+        <v>0</v>
+      </c>
+      <c r="I26" s="77">
+        <v>0</v>
+      </c>
       <c r="J26" s="77">
         <f>Электро!B24</f>
         <v>1436.97</v>
@@ -3157,7 +3267,9 @@
         <f>-Уголь_пр!B25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="77"/>
+      <c r="D27" s="77">
+        <v>0</v>
+      </c>
       <c r="E27" s="77">
         <f>Нефтепродукты!B26</f>
         <v>46.65</v>
@@ -3170,8 +3282,12 @@
         <f>ПТТ!B25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
+      <c r="H27" s="77">
+        <v>0</v>
+      </c>
+      <c r="I27" s="77">
+        <v>0</v>
+      </c>
       <c r="J27" s="77">
         <f>Электро!B25</f>
         <v>93.44</v>
@@ -3196,7 +3312,9 @@
         <f>-Уголь_пр!B26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="77">
+        <v>0</v>
+      </c>
       <c r="E28" s="77">
         <f>Нефтепродукты!B27</f>
         <v>3.9</v>
@@ -3209,8 +3327,12 @@
         <f>ПТТ!B26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
+      <c r="H28" s="77">
+        <v>0</v>
+      </c>
+      <c r="I28" s="77">
+        <v>0</v>
+      </c>
       <c r="J28" s="77">
         <f>Электро!B26</f>
         <v>261.20999999999998</v>
@@ -3233,7 +3355,9 @@
         <f>-Уголь_пр!B27</f>
         <v>0</v>
       </c>
-      <c r="D29" s="77"/>
+      <c r="D29" s="77">
+        <v>0</v>
+      </c>
       <c r="E29" s="77">
         <f>Нефтепродукты!B28</f>
         <v>0</v>
@@ -3246,8 +3370,12 @@
         <f>ПТТ!B27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
+      <c r="H29" s="77">
+        <v>0</v>
+      </c>
+      <c r="I29" s="77">
+        <v>0</v>
+      </c>
       <c r="J29" s="77">
         <f>Электро!B27</f>
         <v>155.30000000000001</v>
@@ -3272,7 +3400,9 @@
         <f>-Уголь_пр!B28</f>
         <v>0</v>
       </c>
-      <c r="D30" s="77"/>
+      <c r="D30" s="77">
+        <v>0</v>
+      </c>
       <c r="E30" s="77">
         <f>Нефтепродукты!B29</f>
         <v>115.92</v>
@@ -3285,8 +3415,12 @@
         <f>ПТТ!B28</f>
         <v>0</v>
       </c>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
+      <c r="H30" s="77">
+        <v>0</v>
+      </c>
+      <c r="I30" s="77">
+        <v>0</v>
+      </c>
       <c r="J30" s="77">
         <f>Электро!B28</f>
         <v>147.32</v>
@@ -3311,7 +3445,9 @@
         <f>-Уголь_пр!B29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="77"/>
+      <c r="D31" s="77">
+        <v>0</v>
+      </c>
       <c r="E31" s="77">
         <f>Нефтепродукты!B30</f>
         <v>538.39</v>
@@ -3324,8 +3460,12 @@
         <f>ПТТ!B29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
+      <c r="H31" s="77">
+        <v>0</v>
+      </c>
+      <c r="I31" s="77">
+        <v>0</v>
+      </c>
       <c r="J31" s="77">
         <f>Электро!B29</f>
         <v>469.87</v>
@@ -3350,7 +3490,9 @@
         <f>-Уголь_пр!B30</f>
         <v>0</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
       <c r="E32" s="70">
         <f>Нефтепродукты!B31</f>
         <v>5.15</v>
@@ -3363,8 +3505,12 @@
         <f>ПТТ!B30</f>
         <v>0</v>
       </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
+      <c r="H32" s="70">
+        <v>0</v>
+      </c>
+      <c r="I32" s="70">
+        <v>0</v>
+      </c>
       <c r="J32" s="70">
         <f>Электро!B30</f>
         <v>321.33</v>
@@ -3389,7 +3535,9 @@
         <f>-Уголь_пр!B31</f>
         <v>0</v>
       </c>
-      <c r="D33" s="70"/>
+      <c r="D33" s="70">
+        <v>0</v>
+      </c>
       <c r="E33" s="70">
         <f>Нефтепродукты!B32</f>
         <v>2.09</v>
@@ -3402,8 +3550,12 @@
         <f>ПТТ!B31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
+      <c r="H33" s="70">
+        <v>0</v>
+      </c>
+      <c r="I33" s="70">
+        <v>0</v>
+      </c>
       <c r="J33" s="70">
         <f>Электро!B31</f>
         <v>10.29</v>
@@ -3428,7 +3580,9 @@
         <f>-Уголь_пр!B32</f>
         <v>0</v>
       </c>
-      <c r="D34" s="70"/>
+      <c r="D34" s="70">
+        <v>0</v>
+      </c>
       <c r="E34" s="70">
         <f>Нефтепродукты!B33</f>
         <v>1.28</v>
@@ -3441,8 +3595,12 @@
         <f>ПТТ!B32</f>
         <v>0</v>
       </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
+      <c r="H34" s="70">
+        <v>0</v>
+      </c>
+      <c r="I34" s="70">
+        <v>0</v>
+      </c>
       <c r="J34" s="70">
         <f>Электро!B32</f>
         <v>7.64</v>
@@ -3467,7 +3625,9 @@
         <f>-Уголь_пр!B33</f>
         <v>0</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
       <c r="E35" s="70">
         <f>Нефтепродукты!B34</f>
         <v>22.19</v>
@@ -3480,8 +3640,12 @@
         <f>ПТТ!B33</f>
         <v>0</v>
       </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
+      <c r="H35" s="70">
+        <v>0</v>
+      </c>
+      <c r="I35" s="70">
+        <v>0</v>
+      </c>
       <c r="J35" s="70">
         <f>Электро!B33</f>
         <v>21.94</v>
@@ -3506,7 +3670,9 @@
         <f>-Уголь_пр!B34</f>
         <v>0</v>
       </c>
-      <c r="D36" s="77"/>
+      <c r="D36" s="77">
+        <v>0</v>
+      </c>
       <c r="E36" s="77">
         <f>Нефтепродукты!B35</f>
         <v>3712.7</v>
@@ -3519,8 +3685,12 @@
         <f>ПТТ!B35</f>
         <v>0.01</v>
       </c>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
+      <c r="H36" s="77">
+        <v>0</v>
+      </c>
+      <c r="I36" s="77">
+        <v>0</v>
+      </c>
       <c r="J36" s="77">
         <f>Электро!B34</f>
         <v>487.39</v>
@@ -3545,7 +3715,9 @@
         <f>Уголь_пр!B35</f>
         <v>0</v>
       </c>
-      <c r="D37" s="77"/>
+      <c r="D37" s="77">
+        <v>0</v>
+      </c>
       <c r="E37" s="77">
         <f>Нефтепродукты!B36</f>
         <v>2523.16</v>
@@ -3558,8 +3730,12 @@
         <f>ПТТ!B36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
+      <c r="H37" s="77">
+        <v>0</v>
+      </c>
+      <c r="I37" s="77">
+        <v>0</v>
+      </c>
       <c r="J37" s="77">
         <f>Электро!B35</f>
         <v>1043.58</v>
@@ -3584,7 +3760,9 @@
         <f>Уголь_пр!B36</f>
         <v>2.99</v>
       </c>
-      <c r="D38" s="77"/>
+      <c r="D38" s="77">
+        <v>0</v>
+      </c>
       <c r="E38" s="77">
         <f>Нефтепродукты!B37</f>
         <v>8.25</v>
@@ -3597,8 +3775,12 @@
         <f>ПТТ!B37</f>
         <v>0</v>
       </c>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
+      <c r="H38" s="77">
+        <v>0</v>
+      </c>
+      <c r="I38" s="77">
+        <v>0</v>
+      </c>
       <c r="J38" s="77">
         <f>Электро!B36</f>
         <v>0</v>
@@ -3623,7 +3805,9 @@
         <f>-Уголь_пр!B37</f>
         <v>0</v>
       </c>
-      <c r="D39" s="77"/>
+      <c r="D39" s="77">
+        <v>0</v>
+      </c>
       <c r="E39" s="77">
         <f>Нефтепродукты!B38</f>
         <v>158.35</v>
@@ -3636,8 +3820,12 @@
         <f>ПТТ!B38</f>
         <v>0</v>
       </c>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
+      <c r="H39" s="77">
+        <v>0</v>
+      </c>
+      <c r="I39" s="77">
+        <v>0</v>
+      </c>
       <c r="J39" s="77">
         <f>Электро!B37</f>
         <v>540</v>
@@ -9447,9 +9635,9 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C59:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9525,15 +9713,21 @@
         <f>B4+B5+B6+B7</f>
         <v>9046.0499999999993</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="42">
+        <v>0</v>
+      </c>
       <c r="D3" s="42">
         <v>9037.0499999999993</v>
       </c>
       <c r="E3" s="42">
         <v>7398.89</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="42">
+        <v>0</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="Q3" s="4"/>
@@ -9555,8 +9749,12 @@
       <c r="E4" s="29">
         <v>2068.35</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
@@ -9567,15 +9765,21 @@
       <c r="B5" s="29">
         <v>6519.26</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
       <c r="D5" s="29">
         <v>6519.26</v>
       </c>
       <c r="E5" s="29">
         <v>5321.54</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -9586,13 +9790,21 @@
       <c r="B6" s="29">
         <v>0.34</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
       <c r="E6" s="29">
         <v>0.34</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -9603,13 +9815,21 @@
       <c r="B7" s="29">
         <v>8.66</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
       <c r="E7" s="29">
         <v>8.66</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
@@ -9620,13 +9840,21 @@
       <c r="B8" s="29">
         <v>1270.52</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
       <c r="D8" s="29">
         <v>1270.52</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="Q8" s="18"/>
@@ -9636,12 +9864,24 @@
       <c r="A9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="29">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="Q9" s="20"/>
@@ -9650,12 +9890,24 @@
       <c r="A10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="Q10" s="21"/>
@@ -9668,11 +9920,21 @@
         <f>B3+B8+B10-B9</f>
         <v>10316.57</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="C11" s="42">
+        <v>0</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0</v>
+      </c>
       <c r="K11" s="47"/>
       <c r="L11" s="47"/>
       <c r="Q11" s="48"/>
@@ -9686,11 +9948,21 @@
         <f>B11-B13-B14-B15-B16-B17-B18</f>
         <v>43.260000000000218</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="C12" s="42">
+        <v>0</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0</v>
+      </c>
+      <c r="G12" s="42">
+        <v>0</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="Q12" s="53"/>
@@ -9700,12 +9972,24 @@
       <c r="A13" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="29">
+        <v>0</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
@@ -9713,12 +9997,24 @@
       <c r="A14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="B14" s="29">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
@@ -9726,12 +10022,24 @@
       <c r="A15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="B15" s="29">
+        <v>0</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="Q15" s="18"/>
@@ -9744,13 +10052,21 @@
       <c r="B16" s="29">
         <v>116.07</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
       <c r="F16" s="29">
         <v>116.07</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
       <c r="K16" s="15"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -9764,13 +10080,21 @@
       <c r="B17" s="29">
         <v>951.86</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="29">
+        <v>0</v>
+      </c>
       <c r="D17" s="29">
         <v>951.86</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="29">
+        <v>0</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0</v>
+      </c>
       <c r="K17" s="14"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -9785,11 +10109,21 @@
         <f>B19+B20+B26+B27+B32+B33+B34+B35</f>
         <v>9205.3799999999992</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="C18" s="42">
+        <v>0</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
       <c r="K18" s="49"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -9803,13 +10137,21 @@
       <c r="B19" s="29">
         <v>55.67</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="29">
+        <v>0</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
       <c r="F19" s="29">
         <v>55.67</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="R19" s="7"/>
@@ -9821,13 +10163,21 @@
       <c r="B20" s="29">
         <v>2513.16</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
       <c r="F20" s="29">
         <v>1398.48</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="R20" s="7"/>
@@ -9839,13 +10189,21 @@
       <c r="B21" s="29">
         <v>4.22</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="29">
+        <v>0</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
       <c r="F21" s="29">
         <v>4.22</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="R21" s="7"/>
@@ -9857,13 +10215,21 @@
       <c r="B22" s="29">
         <v>1371.91</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="29">
+        <v>0</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
       <c r="F22" s="29">
         <v>1371.91</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="29">
+        <v>0</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
@@ -9874,11 +10240,21 @@
       <c r="B23" s="29">
         <v>1114.68</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="29">
+        <v>0</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
@@ -9889,13 +10265,21 @@
       <c r="B24" s="29">
         <v>22.35</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
+      <c r="C24" s="31">
+        <v>0</v>
+      </c>
+      <c r="D24" s="31">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
       <c r="F24" s="29">
         <v>22.35</v>
       </c>
-      <c r="G24" s="31"/>
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="Q24" s="18"/>
@@ -9905,12 +10289,24 @@
       <c r="A25" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="31"/>
+      <c r="B25" s="29">
+        <v>0</v>
+      </c>
+      <c r="C25" s="31">
+        <v>0</v>
+      </c>
+      <c r="D25" s="31">
+        <v>0</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0</v>
+      </c>
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="Q25" s="18"/>
@@ -9923,13 +10319,21 @@
       <c r="B26" s="29">
         <v>62.52</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="29">
+        <v>0</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
       <c r="F26" s="29">
         <v>62.52</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="29">
+        <v>0</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
@@ -9940,13 +10344,21 @@
       <c r="B27" s="29">
         <v>69.72</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="29"/>
+      <c r="C27" s="31">
+        <v>0</v>
+      </c>
+      <c r="D27" s="31">
+        <v>0</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0</v>
+      </c>
       <c r="F27" s="29">
         <v>69.72</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="31">
+        <v>0</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="Q27" s="21"/>
@@ -9958,13 +10370,21 @@
       <c r="B28" s="29">
         <v>3.57</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="C28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0</v>
+      </c>
       <c r="F28" s="29">
         <v>3.57</v>
       </c>
-      <c r="G28" s="35"/>
+      <c r="G28" s="35">
+        <v>0</v>
+      </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="Q28" s="25"/>
@@ -9977,13 +10397,21 @@
       <c r="B29" s="29">
         <v>1.49</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="C29" s="34">
+        <v>0</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="29">
+        <v>0</v>
+      </c>
       <c r="F29" s="29">
         <v>1.49</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="34">
+        <v>0</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
@@ -9991,12 +10419,24 @@
       <c r="A30" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="34"/>
+      <c r="B30" s="29">
+        <v>0</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0</v>
+      </c>
+      <c r="E30" s="29">
+        <v>0</v>
+      </c>
+      <c r="F30" s="29">
+        <v>0</v>
+      </c>
+      <c r="G30" s="34">
+        <v>0</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="Q30" s="5"/>
@@ -10005,12 +10445,24 @@
       <c r="A31" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="29">
+        <v>0</v>
+      </c>
+      <c r="C31" s="34">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0</v>
+      </c>
+      <c r="F31" s="29">
+        <v>0</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0</v>
+      </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="Q31" s="27"/>
@@ -10023,13 +10475,21 @@
       <c r="B32" s="29">
         <v>1128.92</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="C32" s="36">
+        <v>0</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0</v>
+      </c>
       <c r="F32" s="29">
         <v>1128.92</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="34">
+        <v>0</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
@@ -10040,12 +10500,18 @@
       <c r="B33" s="29">
         <v>4969.67</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="29">
+        <v>0</v>
+      </c>
       <c r="D33" s="29">
         <v>4969.67</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="E33" s="29">
+        <v>0</v>
+      </c>
+      <c r="F33" s="29">
+        <v>0</v>
+      </c>
       <c r="G33" s="34">
         <v>4978.91</v>
       </c>
@@ -10059,11 +10525,21 @@
       <c r="B34" s="29">
         <v>0</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="C34" s="29">
+        <v>0</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0</v>
+      </c>
+      <c r="G34" s="29">
+        <v>0</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
@@ -10074,13 +10550,21 @@
       <c r="B35" s="29">
         <v>405.72</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="C35" s="29">
+        <v>0</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0</v>
+      </c>
+      <c r="E35" s="29">
+        <v>0</v>
+      </c>
       <c r="F35" s="29">
         <v>405.72</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="29">
+        <v>0</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
